--- a/ValidationFonctionnelle.xlsx
+++ b/ValidationFonctionnelle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12540" windowHeight="15520"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Expression</t>
   </si>
@@ -136,15 +136,37 @@
   </si>
   <si>
     <t>Avoir une autonomie de 3h</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>Permettre à l'utilisateur de paramétrer l'IHM</t>
+  </si>
+  <si>
+    <t>Rendre l'IHM ergonomique</t>
+  </si>
+  <si>
+    <t>1.6.2</t>
+  </si>
+  <si>
+    <t>Rendre l'IHM adaptée au contrôle via le gaze-tracking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -179,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,8 +232,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -258,80 +286,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -629,7 +685,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,7 +696,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -662,177 +718,198 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="32" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="32" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13"/>
+      <c r="A27" s="9"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13"/>
+      <c r="A28" s="9"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="13"/>
+      <c r="A29" s="9"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="9"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="13"/>
+      <c r="A31" s="9"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="13"/>
+      <c r="A32" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A12:A13"/>
